--- a/paper/EPOCH_1000_0.1_QL_tuning.xlsx
+++ b/paper/EPOCH_1000_0.1_QL_tuning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,6 +783,1383 @@
         <v>469882.9846743165</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>466120.0472931547</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>131153.3662297585</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>133762.84299808</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>93597.11924698831</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>66228.26150012613</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84499.92164080734</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>86261.81102273373</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>152543.3687808165</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>446869.346903807</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>467113.8990761996</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>465856.3976593902</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>131523.3870584243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>131926.5855823317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>88461.96825216715</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>82251.61443627867</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>75261.82646784872</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>186626.1224480457</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E38" t="n">
+        <v>476039.1745976839</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>454948.1430840714</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>459755.9901914569</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>463158.7882559996</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>136794.3397263111</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>124194.7301851317</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>81713.17730455265</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>89694.75879146831</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>138627.236676044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>461165.8691033759</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>445219.745343678</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>460095.5250711824</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>454047.7377722807</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>479720.0265760537</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>134328.4781298728</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>113621.7912685436</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>92644.37379694216</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>120766.8092528564</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>374304.5430713067</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>472404.5823708629</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>491917.7375203616</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>466716.2638634968</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>459079.4218567568</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>473291.8885199488</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>140927.3395558257</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>103268.998883957</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>89531.7550192074</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>246893.510693132</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>457336.5196071149</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>447107.2666515581</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>441871.0760056493</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>479528.6292339507</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>485192.6255026691</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>455968.7756844987</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>136556.3829043912</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>102193.2443183615</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>118613.4856644188</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E75" t="n">
+        <v>297787.7447997311</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>466723.9960123308</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>498834.8284868275</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>456020.7694681349</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>474579.9734731524</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>454044.2231224984</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>482064.4536407756</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>139684.3274755619</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>98077.52459373108</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>131446.8463500522</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>399864.8177126475</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>466220.4447188103</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E87" t="n">
+        <v>458326.7749260459</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>479009.6726662933</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>478969.2216729071</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>460253.963209724</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>474912.7040365562</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>399528.0051064383</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>471391.8804313779</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>464747.2525224015</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E95" t="n">
+        <v>456360.0404015699</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>479161.4859306068</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E97" t="n">
+        <v>458174.7207169227</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>459915.6168960862</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>458928.7869230112</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>465603.8663687962</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>466562.8395666883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
